--- a/biology/Botanique/Alectra/Alectra.xlsx
+++ b/biology/Botanique/Alectra/Alectra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alectra est un genre de plantes dicotylédones de la famille des Orobanchaceae, originaire des régions tropicales et subtropicales d'Asie et d'Afrique, y compris Madagascar, qui comprend 34 espèces acceptées.
-Ce sont des plantes herbacées, parasites obligatoires, généralement hémi-parasites, qui se développent sur les racines de diverses espèces de plantes. Certaines de ces espèces ont une importance économique particulière car elles s'attaquent à des plantes cultivées. Ce sont notamment les suivantes (avec indication des plantes hôtes), la plus importante étant Alectra vogelii qui parasite principalement les cultures de niébé en Afrique subsaharienne causant des pertes de rendement considérables[2].
+Ce sont des plantes herbacées, parasites obligatoires, généralement hémi-parasites, qui se développent sur les racines de diverses espèces de plantes. Certaines de ces espèces ont une importance économique particulière car elles s'attaquent à des plantes cultivées. Ce sont notamment les suivantes (avec indication des plantes hôtes), la plus importante étant Alectra vogelii qui parasite principalement les cultures de niébé en Afrique subsaharienne causant des pertes de rendement considérables.
 Alectra vogelii : niébé (Vigna unguiculata), pois bambara (Vigna subterranea), arachide (Arachis hypogaea) ;
 Alectra picta  : arachide (Arachis hypogaea), niébé (Vigna unguiculata) ;
 Alectra sessiliflora : noug (Guizotia abyssinica) ;
@@ -519,13 +531,53 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon GRIN            (17 mars 2007)[3] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GRIN            (17 mars 2007) :
 Glossostylis Cham. &amp; Schltdl.
 Hymenospermum Benth.
 Pseudorobanche Rouy
-Liste d'espèces
-Selon The Plant List            (13 août 2019)[4] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Alectra</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alectra</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (13 août 2019) :
 Alectra alectroides (S.Moore) Melch.
 Alectra arvensis (Benth.) Merr.
 Alectra atrosanguinea (Hiern) Hemsl.
